--- a/Python/Swedish_steel_SM.xlsx
+++ b/Python/Swedish_steel_SM.xlsx
@@ -382,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -412,11 +412,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,598 +439,294 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>-6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>-0.18</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>-30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>0.18</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
         <f>-12/100</f>
         <v>-0.12</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>-1.1/100</f>
         <v>-1.1000000000000001E-2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>0.12</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>-1E-3</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>1E-3</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>250</v>
       </c>
     </row>
